--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXX\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD44CF-79E0-48F3-AD2F-1AAB540AEBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09D790-426D-4C01-A11B-A013A8548E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3000" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="3690" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,10 +74,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,11 +388,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50000,200000)</f>
-        <v>139605</v>
+        <v>83927</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50000,200000)</f>
-        <v>69733</v>
+        <v>166969</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,11 +402,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:C8" ca="1" si="0">RANDBETWEEN(50000,200000)</f>
-        <v>150003</v>
+        <v>82491</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>166497</v>
+        <v>199583</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,11 +416,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>144700</v>
+        <v>169725</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>65786</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,11 +430,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>65394</v>
+        <v>148236</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>66377</v>
+        <v>86571</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,11 +444,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>138390</v>
+        <v>55301</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>67837</v>
+        <v>155567</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,11 +458,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>98897</v>
+        <v>152373</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>82199</v>
+        <v>74151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>72395</v>
+        <v>113158</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>193866</v>
+        <v>145193</v>
       </c>
     </row>
   </sheetData>
